--- a/examples/AutoConfig/Data/input/excel/rank/rank.xlsx
+++ b/examples/AutoConfig/Data/input/excel/rank/rank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="排行榜定义" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>guildMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankId[;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,13 +454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -609,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -642,7 +640,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
